--- a/code/experiments/record6/record6.xlsx
+++ b/code/experiments/record6/record6.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valentinbossi/Downloads/record6/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valentinbossi/Documents/git/pa17_cogsworth/code/experiments/record6/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13940" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -5429,11 +5429,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-619223840"/>
-        <c:axId val="-619310240"/>
+        <c:axId val="1532306800"/>
+        <c:axId val="1625638960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-619223840"/>
+        <c:axId val="1532306800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5475,7 +5475,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-619310240"/>
+        <c:crossAx val="1625638960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5483,7 +5483,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-619310240"/>
+        <c:axId val="1625638960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5533,7 +5533,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-619223840"/>
+        <c:crossAx val="1532306800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6470,8 +6470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J863"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G860" sqref="G860"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6714,6 +6714,9 @@
       <c r="D10">
         <v>88645</v>
       </c>
+      <c r="E10">
+        <v>88645</v>
+      </c>
       <c r="F10">
         <v>1429401</v>
       </c>
@@ -16742,7 +16745,7 @@
         <v>9529338</v>
       </c>
     </row>
-    <row r="849" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A849" s="1">
         <v>1630</v>
       </c>
@@ -16753,7 +16756,7 @@
         <v>9540418</v>
       </c>
     </row>
-    <row r="850" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A850">
         <v>3624</v>
       </c>
@@ -16764,7 +16767,7 @@
         <v>9551500</v>
       </c>
     </row>
-    <row r="851" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A851">
         <v>1888</v>
       </c>
@@ -16775,7 +16778,7 @@
         <v>9562579</v>
       </c>
     </row>
-    <row r="852" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A852">
         <v>3554</v>
       </c>
@@ -16786,7 +16789,7 @@
         <v>9573660</v>
       </c>
     </row>
-    <row r="853" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A853">
         <v>3838</v>
       </c>
@@ -16797,7 +16800,7 @@
         <v>9584742</v>
       </c>
     </row>
-    <row r="854" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A854">
         <v>2056</v>
       </c>
@@ -16808,7 +16811,7 @@
         <v>9595821</v>
       </c>
     </row>
-    <row r="855" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A855">
         <v>2426</v>
       </c>
@@ -16819,7 +16822,7 @@
         <v>9606902</v>
       </c>
     </row>
-    <row r="856" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A856">
         <v>2936</v>
       </c>
@@ -16830,7 +16833,7 @@
         <v>9617985</v>
       </c>
     </row>
-    <row r="857" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A857">
         <v>3606</v>
       </c>
@@ -16841,7 +16844,7 @@
         <v>9629063</v>
       </c>
     </row>
-    <row r="858" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A858">
         <v>1800</v>
       </c>
@@ -16852,7 +16855,7 @@
         <v>9640143</v>
       </c>
     </row>
-    <row r="859" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A859">
         <v>1032</v>
       </c>
@@ -16863,7 +16866,7 @@
         <v>9651224</v>
       </c>
     </row>
-    <row r="860" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A860">
         <v>38</v>
       </c>
@@ -16876,8 +16879,19 @@
       <c r="D860">
         <v>9662305</v>
       </c>
-    </row>
-    <row r="861" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E860">
+        <v>9662305</v>
+      </c>
+      <c r="F860">
+        <f>E860-E10</f>
+        <v>9573660</v>
+      </c>
+      <c r="G860">
+        <f>F860/59</f>
+        <v>162265.42372881356</v>
+      </c>
+    </row>
+    <row r="861" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A861">
         <v>868</v>
       </c>
@@ -16888,7 +16902,7 @@
         <v>9673385</v>
       </c>
     </row>
-    <row r="862" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A862">
         <v>1752</v>
       </c>
@@ -16899,7 +16913,7 @@
         <v>9684469</v>
       </c>
     </row>
-    <row r="863" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A863">
         <v>2662</v>
       </c>

--- a/code/experiments/record6/record6.xlsx
+++ b/code/experiments/record6/record6.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valentinbossi/Documents/git/pa17_cogsworth/code/experiments/record6/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Linda/Documents/Bildung/Studium/ZHAW/Semester_5/PA/pa17_cogsworth/code/experiments/record6/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14060" tabRatio="500"/>
+    <workbookView xWindow="6980" yWindow="480" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,28 +35,28 @@
     <t>timestamp</t>
   </si>
   <si>
-    <t>ausreisser timestamps</t>
-  </si>
-  <si>
-    <t>halbe periode</t>
-  </si>
-  <si>
-    <t>ganze periode</t>
-  </si>
-  <si>
     <t>hertz</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>hertz im schnitt</t>
-  </si>
-  <si>
     <t>xSumAbs</t>
   </si>
   <si>
     <t>ySumAbs</t>
+  </si>
+  <si>
+    <t>timestamp stillstand</t>
+  </si>
+  <si>
+    <t>half period</t>
+  </si>
+  <si>
+    <t>period</t>
+  </si>
+  <si>
+    <t>hertz average</t>
   </si>
 </sst>
 </file>
@@ -5429,11 +5429,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1532306800"/>
-        <c:axId val="1625638960"/>
+        <c:axId val="-1722364256"/>
+        <c:axId val="-1722361936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1532306800"/>
+        <c:axId val="-1722364256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5475,7 +5475,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1625638960"/>
+        <c:crossAx val="-1722361936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5483,7 +5483,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1625638960"/>
+        <c:axId val="-1722361936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5533,7 +5533,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1532306800"/>
+        <c:crossAx val="-1722364256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6470,8 +6470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J863"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G860" sqref="G860"/>
+    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6485,28 +6485,28 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
       <c r="J1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -6527,7 +6527,7 @@
         <v>166210</v>
       </c>
       <c r="H2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J2" s="2">
         <f>SUM(I:I)/29</f>
@@ -6578,7 +6578,7 @@
         <v>177290</v>
       </c>
       <c r="H4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -6625,7 +6625,7 @@
         <v>177289</v>
       </c>
       <c r="H6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -6672,7 +6672,7 @@
         <v>166210</v>
       </c>
       <c r="H8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -6714,9 +6714,6 @@
       <c r="D10">
         <v>88645</v>
       </c>
-      <c r="E10">
-        <v>88645</v>
-      </c>
       <c r="F10">
         <v>1429401</v>
       </c>
@@ -6725,7 +6722,7 @@
         <v>166209</v>
       </c>
       <c r="H10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -6772,7 +6769,7 @@
         <v>166209</v>
       </c>
       <c r="H12" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -6819,7 +6816,7 @@
         <v>166209</v>
       </c>
       <c r="H14" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -6866,7 +6863,7 @@
         <v>166210</v>
       </c>
       <c r="H16" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -6913,7 +6910,7 @@
         <v>166209</v>
       </c>
       <c r="H18" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -6960,7 +6957,7 @@
         <v>166209</v>
       </c>
       <c r="H20" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -7007,7 +7004,7 @@
         <v>166210</v>
       </c>
       <c r="H22" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -7054,7 +7051,7 @@
         <v>166211</v>
       </c>
       <c r="H24" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -7104,7 +7101,7 @@
         <v>166209</v>
       </c>
       <c r="H26" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -7151,7 +7148,7 @@
         <v>166208</v>
       </c>
       <c r="H28" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -7198,7 +7195,7 @@
         <v>166209</v>
       </c>
       <c r="H30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -7245,7 +7242,7 @@
         <v>166209</v>
       </c>
       <c r="H32" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -7292,7 +7289,7 @@
         <v>166210</v>
       </c>
       <c r="H34" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -7339,7 +7336,7 @@
         <v>166210</v>
       </c>
       <c r="H36" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -7386,7 +7383,7 @@
         <v>166209</v>
       </c>
       <c r="H38" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -7436,7 +7433,7 @@
         <v>166210</v>
       </c>
       <c r="H40" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -7483,7 +7480,7 @@
         <v>166210</v>
       </c>
       <c r="H42" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -7530,7 +7527,7 @@
         <v>166209</v>
       </c>
       <c r="H44" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -7577,7 +7574,7 @@
         <v>166208</v>
       </c>
       <c r="H46" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -7624,7 +7621,7 @@
         <v>177288</v>
       </c>
       <c r="H48" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -7671,7 +7668,7 @@
         <v>166209</v>
       </c>
       <c r="H50" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -7718,7 +7715,7 @@
         <v>166208</v>
       </c>
       <c r="H52" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -7765,7 +7762,7 @@
         <v>166209</v>
       </c>
       <c r="H54" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -7815,7 +7812,7 @@
         <v>132988</v>
       </c>
       <c r="H56" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -7862,7 +7859,7 @@
         <v>166210</v>
       </c>
       <c r="H58" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
@@ -7909,7 +7906,7 @@
         <v>-9662305</v>
       </c>
       <c r="H60" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
@@ -16745,7 +16742,7 @@
         <v>9529338</v>
       </c>
     </row>
-    <row r="849" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A849" s="1">
         <v>1630</v>
       </c>
@@ -16756,7 +16753,7 @@
         <v>9540418</v>
       </c>
     </row>
-    <row r="850" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A850">
         <v>3624</v>
       </c>
@@ -16767,7 +16764,7 @@
         <v>9551500</v>
       </c>
     </row>
-    <row r="851" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A851">
         <v>1888</v>
       </c>
@@ -16778,7 +16775,7 @@
         <v>9562579</v>
       </c>
     </row>
-    <row r="852" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A852">
         <v>3554</v>
       </c>
@@ -16789,7 +16786,7 @@
         <v>9573660</v>
       </c>
     </row>
-    <row r="853" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A853">
         <v>3838</v>
       </c>
@@ -16800,7 +16797,7 @@
         <v>9584742</v>
       </c>
     </row>
-    <row r="854" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A854">
         <v>2056</v>
       </c>
@@ -16811,7 +16808,7 @@
         <v>9595821</v>
       </c>
     </row>
-    <row r="855" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A855">
         <v>2426</v>
       </c>
@@ -16822,7 +16819,7 @@
         <v>9606902</v>
       </c>
     </row>
-    <row r="856" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A856">
         <v>2936</v>
       </c>
@@ -16833,7 +16830,7 @@
         <v>9617985</v>
       </c>
     </row>
-    <row r="857" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A857">
         <v>3606</v>
       </c>
@@ -16844,7 +16841,7 @@
         <v>9629063</v>
       </c>
     </row>
-    <row r="858" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A858">
         <v>1800</v>
       </c>
@@ -16855,7 +16852,7 @@
         <v>9640143</v>
       </c>
     </row>
-    <row r="859" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A859">
         <v>1032</v>
       </c>
@@ -16866,7 +16863,7 @@
         <v>9651224</v>
       </c>
     </row>
-    <row r="860" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A860">
         <v>38</v>
       </c>
@@ -16879,19 +16876,8 @@
       <c r="D860">
         <v>9662305</v>
       </c>
-      <c r="E860">
-        <v>9662305</v>
-      </c>
-      <c r="F860">
-        <f>E860-E10</f>
-        <v>9573660</v>
-      </c>
-      <c r="G860">
-        <f>F860/59</f>
-        <v>162265.42372881356</v>
-      </c>
-    </row>
-    <row r="861" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="861" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A861">
         <v>868</v>
       </c>
@@ -16902,7 +16888,7 @@
         <v>9673385</v>
       </c>
     </row>
-    <row r="862" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A862">
         <v>1752</v>
       </c>
@@ -16913,7 +16899,7 @@
         <v>9684469</v>
       </c>
     </row>
-    <row r="863" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A863">
         <v>2662</v>
       </c>

--- a/code/experiments/record6/record6.xlsx
+++ b/code/experiments/record6/record6.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6980" yWindow="480" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -126,7 +126,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-CH"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5429,11 +5429,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1722364256"/>
-        <c:axId val="-1722361936"/>
+        <c:axId val="1650930368"/>
+        <c:axId val="1650761312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1722364256"/>
+        <c:axId val="1650930368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5475,7 +5475,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1722361936"/>
+        <c:crossAx val="1650761312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5483,7 +5483,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1722361936"/>
+        <c:axId val="1650761312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5533,7 +5533,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1722364256"/>
+        <c:crossAx val="1650930368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5614,7 +5614,2607 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>xSumAbs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$A$2:$A$365</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="364"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3050.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2540.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1106.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3422.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3070.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1924.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1012.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>66.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21266.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2860.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3202.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3322.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3342.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2164.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3192.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3142.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2236.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2392.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3108.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3480.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2204.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>354.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>754.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3160.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3156.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3264.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3426.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2282.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3046.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3682.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3168.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2294.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3178.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3354.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2708.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1394.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>192.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>516.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1724.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3006.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3732.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3586.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3152.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2654.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3678.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3900.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2680.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2564.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3188.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3448.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2288.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>530.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>464.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2934.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3646.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3830.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3640.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2254.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4240.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3736.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2070.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3246.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3206.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2628.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1588.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>316.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>296.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1506.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2808.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3460.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3986.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3018.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2442.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3618.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4498.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2900.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2558.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3236.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3550.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2316.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>726.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>468.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2618.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3610.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3968.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3152.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2200.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3374.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4308.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3864.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2206.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3334.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2860.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2614.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1556.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>518.0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>278.0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1426.0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2498.0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>3704.0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>3882.0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>3242.0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2578.0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>3926.0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>4820.0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>3268.0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2798.0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2942.0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>3662.0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2680.0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1032.0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>290.0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2116.0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>3376.0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>3688.0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>3504.0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2138.0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>3846.0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>3654.0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2520.0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>3714.0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>3186.0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2878.0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1734.0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>560.0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>298.0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1084.0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2090.0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>3594.0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>3976.0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>3310.0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2588.0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>3548.0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>4170.0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>3136.0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2630.0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2768.0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>3476.0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2756.0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>932.0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>198.0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2162.0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>3640.0</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>3388.0</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>3164.0</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2220.0</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2766.0</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>3536.0</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>3696.0</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2162.0</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>3422.0</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>3544.0</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>3220.0</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1842.0</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>876.0</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>244.0</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1186.0</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2140.0</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>3178.0</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>3672.0</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2710.0</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2600.0</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2992.0</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>3716.0</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>3112.0</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2722.0</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2892.0</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>3346.0</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2982.0</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1148.0</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>180.0</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2014.0</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>3310.0</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>3128.0</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>2680.0</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>2368.0</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>3308.0</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>4078.0</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>2380.0</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>2294.0</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>3330.0</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>3508.0</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1886.0</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>786.0</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>96.0</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1222.0</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1938.0</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>3448.0</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>3204.0</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>2526.0</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>2610.0</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>2946.0</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>3560.0</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>2820.0</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>2850.0</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>2662.0</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>3394.0</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>3060.0</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>1270.0</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>92.0</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>1646.0</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>3354.0</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>2928.0</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>2816.0</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>2722.0</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>2292.0</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>3038.0</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>3876.0</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>2192.0</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>2546.0</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>3248.0</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>3642.0</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>2076.0</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>962.0</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>934.0</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>1984.0</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>2826.0</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>2848.0</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>2936.0</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>2408.0</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>3122.0</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>3526.0</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>2670.0</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>2578.0</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>2678.0</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>3216.0</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>2908.0</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>1616.0</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>1526.0</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>3364.0</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>3038.0</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>3018.0</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>2700.0</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>2988.0</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>3760.0</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>2260.0</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>2254.0</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>3330.0</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>3850.0</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>2228.0</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>1202.0</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>862.0</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>1874.0</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>2796.0</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>2978.0</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>3044.0</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>2490.0</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>3100.0</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>3616.0</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>2580.0</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>2516.0</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>2766.0</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>3652.0</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>2966.0</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>1612.0</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>94.0</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>1252.0</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>3180.0</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>3478.0</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>3174.0</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>3356.0</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>2028.0</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>3310.0</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>4226.0</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>2530.0</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>2060.0</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>3068.0</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>3854.0</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>2700.0</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>1262.0</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>620.0</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>1784.0</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>3012.0</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>3138.0</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>3260.0</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>2620.0</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>2884.0</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>3394.0</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>2838.0</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>2352.0</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>2702.0</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>3442.0</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>3214.0</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>1778.0</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>180.0</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>942.0</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>3226.0</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>3018.0</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>3336.0</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>3316.0</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>2988.0</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>4448.0</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>2646.0</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>2100.0</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>3298.0</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>3724.0</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>2420.0</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>1460.0</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>160.0</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>552.0</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>1918.0</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>2968.0</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>3180.0</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>3698.0</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>2928.0</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>2554.0</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>3432.0</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>2776.0</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>2074.0</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>2544.0</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>3576.0</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>3140.0</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>2072.0</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>366.0</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>862.0</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>3310.0</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>2912.0</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>3788.0</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>4006.0</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>2132.0</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>3028.0</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>4126.0</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>3074.0</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>2064.0</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>3252.0</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>3650.0</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>2532.0</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>1232.0</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>134.0</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>428.0</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>1804.0</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>2824.0</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>3490.0</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>3866.0</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>2984.0</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>2670.0</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>3838.0</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>3436.0</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>2452.0</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>2696.0</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>3194.0</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>3466.0</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>2218.0</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>628.0</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>2968.0</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>3324.0</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>3702.0</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>3608.0</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>3472.0</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>4224.0</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>3508.0</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>2358.0</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>3134.0</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>3236.0</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>2452.0</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>1530.0</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>308.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ySumAbs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$2:$B$365</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="364"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2704.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1770.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1464.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2870.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2352.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1658.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1438.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>146.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>982.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20532.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2780.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2546.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2986.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2412.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2730.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3012.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2736.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2146.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3192.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3434.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2130.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1290.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>440.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>496.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2034.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2560.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3118.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2736.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2934.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3390.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4380.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2472.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2394.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3328.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2864.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2438.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1604.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>456.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>908.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1894.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2476.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2800.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3248.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2598.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2948.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3902.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2964.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2254.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2496.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3632.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2468.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1542.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>470.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>450.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1756.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2530.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3020.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2762.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2562.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4332.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2812.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2082.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3410.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3218.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2500.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1726.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>622.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>646.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1836.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2464.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3254.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3244.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2766.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2934.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4312.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3242.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2140.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2876.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3894.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2370.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1764.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>524.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>444.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1772.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2468.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3082.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2186.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2522.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3536.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4246.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2862.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2250.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3310.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3274.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2458.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1958.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>878.0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>438.0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1876.0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2540.0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>3262.0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>3210.0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2378.0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2928.0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>4408.0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>3744.0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2460.0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>3022.0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>3292.0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2210.0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2092.0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>660.0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>294.0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1748.0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2446.0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>3530.0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2572.0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2090.0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>3638.0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2656.0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2692.0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>3248.0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2998.0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2728.0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1780.0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>260.0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1554.0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2198.0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>3646.0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2818.0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2124.0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2838.0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>4250.0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>3192.0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2610.0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2896.0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>3122.0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2648.0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2038.0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>886.0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>212.0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1886.0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2170.0</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>3130.0</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2446.0</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2148.0</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2874.0</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2712.0</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2622.0</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2516.0</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>3044.0</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>3472.0</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2508.0</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2114.0</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1060.0</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>234.0</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1320.0</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2256.0</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>3136.0</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2816.0</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2172.0</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2820.0</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>3584.0</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2890.0</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2334.0</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>3126.0</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2562.0</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2870.0</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2068.0</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>798.0</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>156.0</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1778.0</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2338.0</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>3192.0</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>2958.0</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>2342.0</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>3034.0</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>3144.0</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>2452.0</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>2980.0</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>2700.0</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>2502.0</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1954.0</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1360.0</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>154.0</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1340.0</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>2170.0</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>3322.0</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>2576.0</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1926.0</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>2862.0</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>3600.0</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>3158.0</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>2176.0</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>2826.0</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>2900.0</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>3148.0</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>2612.0</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>1010.0</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>82.0</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>1578.0</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>2666.0</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>3014.0</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>3256.0</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>2254.0</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>2260.0</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>2816.0</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>2884.0</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>2312.0</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>2866.0</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>2562.0</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>2678.0</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>1962.0</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>1372.0</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>68.0</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>1444.0</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>2168.0</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>2828.0</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>2450.0</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>2264.0</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>2314.0</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>3232.0</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>3180.0</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>2148.0</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>2570.0</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>3412.0</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>3436.0</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>2578.0</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>1084.0</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>92.0</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>1436.0</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>2266.0</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>3128.0</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>3230.0</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>2636.0</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>2372.0</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>3006.0</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>2222.0</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>2566.0</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>2852.0</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>2518.0</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>2314.0</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>1610.0</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>1320.0</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>1866.0</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>2708.0</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>2342.0</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>2558.0</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>2620.0</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>3140.0</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>2764.0</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>2714.0</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>2568.0</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>3336.0</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>3186.0</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>2198.0</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>986.0</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>84.0</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>1016.0</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>2372.0</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>3200.0</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>3456.0</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>2558.0</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>2250.0</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>2436.0</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>3268.0</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>2478.0</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>2164.0</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>2260.0</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>2548.0</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>2562.0</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>1490.0</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>68.0</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>1250.0</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>1916.0</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>2930.0</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>2704.0</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>2546.0</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>2268.0</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>2700.0</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>2694.0</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>2380.0</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>2540.0</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>2802.0</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>3452.0</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>2408.0</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>1154.0</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>110.0</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>930.0</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>2218.0</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>3462.0</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>2952.0</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>2242.0</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>3066.0</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>3782.0</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>2776.0</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>2034.0</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>2788.0</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>2726.0</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>2462.0</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>1628.0</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>244.0</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>1150.0</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>1962.0</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>2902.0</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>2364.0</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>2900.0</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>2254.0</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>2742.0</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>3106.0</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>2648.0</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>2384.0</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>3070.0</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>3732.0</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>2074.0</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>1386.0</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>224.0</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>794.0</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>2174.0</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>3048.0</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>2948.0</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>2946.0</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>2704.0</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>3376.0</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>4338.0</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>2698.0</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>2324.0</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>3104.0</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>3070.0</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>2402.0</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>1594.0</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>254.0</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>940.0</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>1874.0</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>2862.0</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>3022.0</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>3120.0</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>2500.0</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>2640.0</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>3296.0</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>3090.0</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>2352.0</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>3008.0</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>3718.0</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>2274.0</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>1502.0</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>346.0</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>672.0</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>1710.0</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>2688.0</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>2842.0</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>3008.0</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>3624.0</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>4390.0</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>2510.0</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>2472.0</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>3204.0</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>3030.0</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>2394.0</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>1522.0</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>452.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1720187248"/>
+        <c:axId val="1720189456"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1720187248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1800"/>
+                  <a:t>Time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1720189456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1720189456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1800"/>
+                  <a:t>Summed Motion Vectors of a Frame (x resp. y values)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1720187248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.348457421225488"/>
+          <c:y val="0.943616027354379"/>
+          <c:w val="0.338760083000096"/>
+          <c:h val="0.0441515567434805"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6170,6 +8770,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -6197,6 +9313,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>67733</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6470,8 +9618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J863"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="I65" zoomScale="80" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="O111" sqref="O111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
